--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="设备信息" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +32,6 @@
   </si>
   <si>
     <t>47.100.198.255:8080/auth/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> String loginName : 登录名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,12 +85,319 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>异常
+{
+    "code": -1,
+    "message": 。。。
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer creater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer hospitalId;</t>
+  </si>
+  <si>
+    <t>String hospital;</t>
+  </si>
+  <si>
+    <t>Integer departmentId;</t>
+  </si>
+  <si>
+    <t>String department;</t>
+  </si>
+  <si>
+    <t>String picture1;</t>
+  </si>
+  <si>
+    <t>String picture2;</t>
+  </si>
+  <si>
+    <t>String picture3;</t>
+  </si>
+  <si>
+    <t>String picture4;</t>
+  </si>
+  <si>
+    <t>String picture5;</t>
+  </si>
+  <si>
+    <t>String assetNo;</t>
+  </si>
+  <si>
+    <t>String deviceModel;</t>
+  </si>
+  <si>
+    <t>String deviceDesc;</t>
+  </si>
+  <si>
+    <t>Integer deviceState;</t>
+  </si>
+  <si>
+    <t>Integer deviceType;</t>
+  </si>
+  <si>
+    <t>String serialNumber;</t>
+  </si>
+  <si>
+    <t>Integer usageState;</t>
+  </si>
+  <si>
+    <t>String qrCode;</t>
+  </si>
+  <si>
+    <t>String manufacturer;</t>
+  </si>
+  <si>
+    <t>String producingPlace;</t>
+  </si>
+  <si>
+    <t>String accessory;</t>
+  </si>
+  <si>
+    <t>Timestamp setupDate;</t>
+  </si>
+  <si>
+    <t>Timestamp acceptDate;</t>
+  </si>
+  <si>
+    <t>String acceptRemark;</t>
+  </si>
+  <si>
+    <t>String acceptFile;</t>
+  </si>
+  <si>
+    <t>Timestamp useDate;</t>
+  </si>
+  <si>
+    <t>String deviceOwner;</t>
+  </si>
+  <si>
+    <t>Timestamp storageDate;</t>
+  </si>
+  <si>
+    <t>Integer purchaseAmount;</t>
+  </si>
+  <si>
+    <t>Timestamp maintenanceEndDate;</t>
+  </si>
+  <si>
+    <t>Timestamp warrantyBeginDate;</t>
+  </si>
+  <si>
+    <t>Timestamp warrantyEndDate;</t>
+  </si>
+  <si>
+    <t>Integer warrantyAmount;</t>
+  </si>
+  <si>
+    <t>String warrantyContent;</t>
+  </si>
+  <si>
+    <t>String salesSupplier;</t>
+  </si>
+  <si>
+    <t>String salesSupplierContact;</t>
+  </si>
+  <si>
+    <t>String salesSupplierPhone;</t>
+  </si>
+  <si>
+    <t>String salesSupplierDesc;</t>
+  </si>
+  <si>
+    <t>String afterSaleProvider;</t>
+  </si>
+  <si>
+    <t>String afterSaleProviderEngineer;</t>
+  </si>
+  <si>
+    <t>String afterSaleProviderPhone;</t>
+  </si>
+  <si>
+    <t>String afterSaleProviderDesc;</t>
+  </si>
+  <si>
+    <t>Integer contractId;</t>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/equip/addDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/equip/getDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deviceCode;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deviceName;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "data": {
+        "deviceCode": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常
+{
+    "code": -1,
+    "message": XXXXXX,
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": "添加成功",
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常
+{
+    "code": -1,
+    "message": XXXXXX
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/equip/updDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/equip/delDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": "删除成功",
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> int deviceID  设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备Json对象（参照equipment实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备Json对象（参照equipment实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户实体对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer userId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String loginName;</t>
+  </si>
+  <si>
+    <t>String loginPassword;</t>
+  </si>
+  <si>
+    <t>String mobile;</t>
+  </si>
+  <si>
+    <t>String email;</t>
+  </si>
+  <si>
+    <t>String displayName;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +410,23 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +647,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -653,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
@@ -662,33 +985,35 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5"/>
@@ -717,16 +1042,12 @@
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="8"/>
     </row>
@@ -734,7 +1055,6 @@
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
@@ -742,7 +1062,6 @@
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
@@ -750,7 +1069,6 @@
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="8"/>
     </row>
@@ -758,7 +1076,6 @@
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="8"/>
     </row>
@@ -766,7 +1083,6 @@
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
     </row>
@@ -777,6 +1093,51 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -787,12 +1148,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="185.25" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="81">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -811,4 +1528,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
     <sheet name="设备信息" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="部门信息" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,12 +393,202 @@
   <si>
     <t>String displayName;</t>
   </si>
+  <si>
+    <t>获取所属医院的部门树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/equip/getDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int userID 用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "data": {
+        "deviceCode": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新部门</t>
+  </si>
+  <si>
+    <t>删除部门</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int DeptId  部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": "更新成功",
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer creater         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             插入必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             更新必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deptOwner;</t>
+  </si>
+  <si>
+    <t>Integer parentDeptId;</t>
+  </si>
+  <si>
+    <t>String deptPath;</t>
+  </si>
+  <si>
+    <t>String remark;</t>
+  </si>
+  <si>
+    <t>String deptName;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer deptId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/dept/getDeptTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/dept/addDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/dept/updDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/dept/delDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门Json对象（参照department实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门Json对象（参照department对象）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功
+{
+    "code": 0,
+    "message": null,
+    "data": [{
+        "deptId": 102,
+        ……,
+        d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>epartment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    },{
+        "deptId": 105,
+        ……,
+        department实体
+    },
+     ……
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +621,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -609,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +852,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1040,102 +1242,55 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="14" t="s">
-        <v>78</v>
+      <c r="C16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1150,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C57"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1226,7 +1381,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>69</v>
@@ -1464,49 +1619,55 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:4">
       <c r="C51" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:4">
       <c r="C52" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:4">
       <c r="C53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:4">
       <c r="C55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
+        <v>95</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
       <c r="C57" t="s">
         <v>19</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1518,12 +1679,212 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="185.25" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1542,4 +1903,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -10,15 +10,16 @@
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
     <sheet name="设备信息" sheetId="4" r:id="rId2"/>
     <sheet name="部门信息" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="省市区域信息" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,9 +155,6 @@
     <t>String assetNo;</t>
   </si>
   <si>
-    <t>String deviceModel;</t>
-  </si>
-  <si>
     <t>String deviceDesc;</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>String manufacturer;</t>
   </si>
   <si>
-    <t>String producingPlace;</t>
-  </si>
-  <si>
     <t>String accessory;</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>Timestamp useDate;</t>
   </si>
   <si>
-    <t>String deviceOwner;</t>
-  </si>
-  <si>
     <t>Timestamp storageDate;</t>
   </si>
   <si>
@@ -258,52 +246,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47.100.198.255:8080/equip/getDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String deviceCode;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String deviceName;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">成功
-{
-    "code": 0,
-    "message": null,
-    "data": {
-        "deviceCode": 10002,
-        ……,
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equipment实体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    }
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -367,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备Json对象（参照equipment实体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户实体对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,48 +345,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int userID 用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">成功
-{
-    "code": 0,
-    "message": null,
-    "data": {
-        "deviceCode": 10002,
-        ……,
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equipment实体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    }
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,10 +425,6 @@
   </si>
   <si>
     <t>部门Json对象（参照department实体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门Json对象（参照department对象）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,12 +481,358 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/area/getAreaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常
+{
+    "code": -1,
+    "message": "XXXXXX"
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer areaId</t>
+  </si>
+  <si>
+    <t>String areaName</t>
+  </si>
+  <si>
+    <t>Integer areaType</t>
+  </si>
+  <si>
+    <t>Integer areaDepth</t>
+  </si>
+  <si>
+    <t>String areaPath</t>
+  </si>
+  <si>
+    <t>Integer parentId</t>
+  </si>
+  <si>
+    <t>String adminCode</t>
+  </si>
+  <si>
+    <t>String weatherCode</t>
+  </si>
+  <si>
+    <t>String zipCode</t>
+  </si>
+  <si>
+    <t>String countryCode</t>
+  </si>
+  <si>
+    <t>String districtCode</t>
+  </si>
+  <si>
+    <t>String remark</t>
+  </si>
+  <si>
+    <t>获取区域信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area实体对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "data": [
+       {
+        "areaId": 1000002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Area实体对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        },
+        {
+        "areaId": 1000003,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Area实体对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        },
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/equip/getDeviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/equip/getDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int deviceId 设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "data": {
+        "deviceCode": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int pageIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "recordCount":100,
+    "data": [
+     {
+        "deviceCode": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     },{
+        "deviceCode": 10005,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     },
+    …...
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备条件Json对象（参照equipment实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deviceModel;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String producingPlace;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deviceOwner;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个部门信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int deptId 部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "data": 
+    {
+        "deviceCode": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +873,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -808,7 +1060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +1107,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,7 +1409,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1182,12 +1437,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1200,12 +1457,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" customHeight="1">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -1251,47 +1510,47 @@
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1303,16 +1562,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:D57"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="5" max="5" width="46.625" customWidth="1"/>
     <col min="6" max="6" width="32.875" customWidth="1"/>
@@ -1324,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1334,84 +1593,104 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="185.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="81">
+      <c r="A5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="185.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="81">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="81">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
@@ -1422,252 +1701,268 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="13" t="s">
-        <v>17</v>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" t="s">
-        <v>64</v>
+      <c r="C12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1681,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1700,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1710,93 +2005,103 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="B4" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81">
+      <c r="A5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="81">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="81">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1825,63 +2130,71 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1893,12 +2206,152 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="221.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1917,4 +2370,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
     <sheet name="设备信息" sheetId="4" r:id="rId2"/>
     <sheet name="部门信息" sheetId="5" r:id="rId3"/>
     <sheet name="省市区域信息" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="合同信息" sheetId="7" r:id="rId5"/>
+    <sheet name="采购信息" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="178">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,10 +338,6 @@
   </si>
   <si>
     <t>获取所属医院的部门树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/equip/getDept</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,10 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47.100.198.255:8080/area/getAreaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>异常
 {
     "code": -1,
@@ -684,12 +676,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设备条件Json对象（参照equipment实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deviceModel;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String producingPlace;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deviceOwner;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个部门信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int deptId 部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">成功
 {
     "code": 0,
     "message": null,
-    "recordCount":100,
+    "data": 
+    {
+        "deviceCode": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equipment实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/dept/getDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/area/getAreaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功
+{
+    "code": 0,
+    "message": null,
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recordCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">":100,
     "data": [
      {
         "deviceCode": 10002,
@@ -751,27 +850,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备条件Json对象（参照equipment实体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String deviceModel;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String producingPlace;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String deviceOwner;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取单个部门信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int deptId 部门ID</t>
+    <t>获取合同列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个合同信息</t>
+  </si>
+  <si>
+    <t>添加合同</t>
+  </si>
+  <si>
+    <t>更新合同</t>
+  </si>
+  <si>
+    <t>删除合同</t>
+  </si>
+  <si>
+    <t>合同条件Json对象（参照Contract实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String contractNo;</t>
+  </si>
+  <si>
+    <t>String contractName;</t>
+  </si>
+  <si>
+    <t>String contractFile;</t>
+  </si>
+  <si>
+    <t>Integer deviceCount;</t>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/contract/getContractList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int contractId 合同ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -780,11 +899,21 @@
 {
     "code": 0,
     "message": null,
-    "data": 
-    {
-        "deviceCode": 10002,
+    "data": {
+        "contractId": 10002,
         ……,
         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contract</t>
     </r>
     <r>
       <rPr>
@@ -795,7 +924,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>equipment实体</t>
+      <t>实体</t>
     </r>
     <r>
       <rPr>
@@ -807,7 +936,131 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-    }</t>
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同Json对象（参照contract实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> int contractID  合同ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/contract/getContractInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/contract/addContractInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/contract/updContractInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/contract/delContract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取采购列表</t>
+  </si>
+  <si>
+    <t>获取单个采购信息</t>
+  </si>
+  <si>
+    <t>添加采购</t>
+  </si>
+  <si>
+    <t>更新采购</t>
+  </si>
+  <si>
+    <t>删除采购</t>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/purchase/getPurchaseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购条件Json对象（参照Purchase实体）</t>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": null,
+    "data": {
+        "PurchaseId": 10002,
+        ……,
+        Purchase实体
+    }
+}</t>
+  </si>
+  <si>
+    <t>采购Json对象（参照Purchase实体）</t>
+  </si>
+  <si>
+    <t>Purchase实体</t>
+  </si>
+  <si>
+    <r>
+      <t>成功
+{
+    "code": 0,
+    "message": null,
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recordCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">":100,
+    "data": [
+     {
+        "contractId": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实体</t>
     </r>
     <r>
       <rPr>
@@ -819,12 +1072,102 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+     },{
+        "contractId": 10005,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     },
+    …...
+    ]
 }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取单个设备信息</t>
+    <t>47.100.198.255:8080/purchase/getPurchaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/Purchase/addPurchaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/purchase/updPurchaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/purchase/delPurchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int purchaseId 采购ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> int purchaseID  采购ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer purchaseId;</t>
+  </si>
+  <si>
+    <t>String purchaseOwner;</t>
+  </si>
+  <si>
+    <t>Integer hasBid;</t>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": null,
+    "recordCount":100,
+    "data": [
+     {
+        "PurchaseId": 10002,
+        ……,
+        Purchase实体
+     },{
+        "PurchaseId": 10005,
+        ……,
+        Purchase实体
+     },
+    …...
+    ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +1175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +1221,14 @@
       <color theme="9" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1438,7 +1789,7 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1458,7 +1809,7 @@
     </row>
     <row r="3" spans="1:6" ht="82.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -1564,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1594,19 +1945,19 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>61</v>
@@ -1614,19 +1965,19 @@
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>61</v>
@@ -1634,7 +1985,7 @@
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>58</v>
@@ -1654,7 +2005,7 @@
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>64</v>
@@ -1666,7 +2017,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>63</v>
@@ -1674,7 +2025,7 @@
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>65</v>
@@ -1723,10 +2074,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1791,7 +2142,7 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -1831,7 +2182,7 @@
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="3:3">
@@ -1866,7 +2217,7 @@
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -1951,10 +2302,10 @@
     </row>
     <row r="57" spans="3:4">
       <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="58" spans="3:4">
@@ -1962,7 +2313,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1976,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2006,19 +2357,19 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>61</v>
@@ -2026,19 +2377,19 @@
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>61</v>
@@ -2046,16 +2397,16 @@
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>62</v>
@@ -2066,16 +2417,16 @@
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>62</v>
@@ -2086,16 +2437,16 @@
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>68</v>
@@ -2130,35 +2481,35 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -2173,12 +2524,12 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -2186,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -2194,7 +2545,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2208,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2238,20 +2589,20 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2288,67 +2639,67 @@
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2360,12 +2711,235 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="185.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2374,12 +2948,210 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="185.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="179">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,6 +1168,10 @@
     …...
     ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页索引(仅用于分页)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2077,7 +2081,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2328,7 +2332,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2713,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2875,7 +2879,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2950,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3112,7 +3116,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="省市区域信息" sheetId="6" r:id="rId4"/>
     <sheet name="合同信息" sheetId="7" r:id="rId5"/>
     <sheet name="采购信息" sheetId="8" r:id="rId6"/>
+    <sheet name="设备附件" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="213">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1172,6 +1173,155 @@
   </si>
   <si>
     <t>分页索引(仅用于分页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/accessory/fileUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;form action="/accessory/fileUpload" method="POST" enctype="multipart/form-data"&gt;
+    文件：&lt;input type="file" name="fileUpload"/&gt;
+&lt;/form&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/accessory/download?fileName=memory.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName=yyy.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": "上传成功",
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功
+{
+    "code": 0,
+    "message": "下载成功"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/accessory/addAccessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加设备附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备附件Json对象（参照Accessory实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessory实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除设备附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> int accessoryID  设备附件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/accessory/delAccessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/accessory/getAccessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取设备附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer accessoryId</t>
+  </si>
+  <si>
+    <t>Integer userManual</t>
+  </si>
+  <si>
+    <t>Integer maintenanceManual</t>
+  </si>
+  <si>
+    <t>Integer handbook</t>
+  </si>
+  <si>
+    <t>String data1file</t>
+  </si>
+  <si>
+    <t>String data1desc</t>
+  </si>
+  <si>
+    <t>String data2file</t>
+  </si>
+  <si>
+    <t>String data2desc</t>
+  </si>
+  <si>
+    <t>String data3file</t>
+  </si>
+  <si>
+    <t>String data3desc</t>
+  </si>
+  <si>
+    <t>String data4file</t>
+  </si>
+  <si>
+    <t>String data4desc</t>
+  </si>
+  <si>
+    <t>String data5file</t>
+  </si>
+  <si>
+    <t>String data5desc</t>
+  </si>
+  <si>
+    <t>String paperFilePlace</t>
+  </si>
+  <si>
+    <t>String paperFileContent</t>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": null,
+    "data": 设备附件Json对象（参照Accessory实体）
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2954,7 +3104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3160,4 +3310,272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="185.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="94.5">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="217">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1322,6 +1322,23 @@
     "message": null,
     "data": 设备附件Json对象（参照Accessory实体）
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/accessory/queryPic?fileName=memory.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName=yyy.jpg
+&lt;img src='http://47.100.198.255:8080/accessory/queryPic?fileName=memory.jpg'/&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3314,10 +3331,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3384,73 +3401,85 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="185.25" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>188</v>
+      <c r="B4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>62</v>
+        <v>216</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="94.5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="185.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="81">
+    <row r="6" spans="1:6" ht="94.5">
       <c r="A6" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>192</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
+    <row r="7" spans="1:6" ht="81">
+      <c r="A7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
@@ -3461,115 +3490,123 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="13" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
     <row r="13" spans="1:6">
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>87</v>
       </c>
     </row>

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="合同信息" sheetId="7" r:id="rId5"/>
     <sheet name="采购信息" sheetId="8" r:id="rId6"/>
     <sheet name="设备附件" sheetId="10" r:id="rId7"/>
+    <sheet name="报修工单" sheetId="11" r:id="rId8"/>
+    <sheet name="设备二维码" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="252">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1341,12 +1343,253 @@
 &lt;img src='http://47.100.198.255:8080/accessory/queryPic?fileName=memory.jpg'/&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>轮询待处理工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int assigneeUserId
+用户（委派人）ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修工单生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单Json对象（参照MtCaseDTO实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无
+{
+    "code": 0,
+    "message": "",
+    "recordCount":0,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MtCaseDTO实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int hisId;</t>
+  </si>
+  <si>
+    <t>String hisRemark;</t>
+  </si>
+  <si>
+    <t>String reporterWeixin;</t>
+  </si>
+  <si>
+    <t>Integer assigneeUserId;</t>
+  </si>
+  <si>
+    <t>int solveInterval;</t>
+  </si>
+  <si>
+    <t>String feedbackContent;</t>
+  </si>
+  <si>
+    <t>int caseId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "recordCount":1
+    "data": {
+        "caseId": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MtCaseDTO实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "recordCount":n
+    "data": [{
+        "caseId": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MtCaseDTO实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    },
+    {
+        "caseId": 10003,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MtCaseDTO实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    },]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有
+{
+    "code": 0,
+    "message": "有新的报修工单待处理",
+    "recordCount":n   
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得报修工单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得报修工单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int caseId
+报修工单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String caseSubject;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String caseRemark;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer caseState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer deviceId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer reporterUserId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int responseInterval;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int feedbackScore;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int cost;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String caseFilePath;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/addMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/getMtCaseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/getMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/rotateMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备二维码图片接收url：47.100.198.255:8080/equip/getQRCode?qrCode=100000026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src='47.100.198.255:8080/equip/getQRCode?qrCode=100000026'  style="width:300px"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1398,6 +1641,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1582,7 +1840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,6 +1890,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3333,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3615,4 +3876,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="259.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="185.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="148.5">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="253">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1582,6 +1582,10 @@
   </si>
   <si>
     <t>&lt;img src='47.100.198.255:8080/equip/getQRCode?qrCode=100000026'  style="width:300px"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3594,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3885,7 +3889,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4150,10 +4154,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4171,6 +4175,11 @@
         <v>251</v>
       </c>
     </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="254">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1357,10 +1357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工单Json对象（参照MtCaseDTO实体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无
 {
     "code": 0,
@@ -1586,6 +1582,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修工单Json对象（参照MtCaseDTO实体）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2352,7 +2356,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2513,7 +2517,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3889,8 +3893,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3922,7 +3926,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>217</v>
@@ -3931,10 +3935,10 @@
         <v>218</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
@@ -3942,16 +3946,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>61</v>
@@ -3962,16 +3966,16 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>61</v>
@@ -3982,16 +3986,16 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>61</v>
@@ -4031,7 +4035,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4044,86 +4048,86 @@
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -4156,7 +4160,7 @@
   </sheetPr>
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4164,20 +4168,20 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
         <v>250</v>
-      </c>
-      <c r="C4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="260">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1521,75 +1521,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Integer caseState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer deviceId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer reporterUserId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int responseInterval;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int feedbackScore;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int cost;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String caseFilePath;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/addMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/getMtCaseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/getMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/rotateMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备二维码图片接收url：47.100.198.255:8080/equip/getQRCode?qrCode=100000026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src='47.100.198.255:8080/equip/getQRCode?qrCode=100000026'  style="width:300px"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修工单Json对象（参照MtCaseDTO实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>String caseRemark;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Integer caseState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer deviceId;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer reporterUserId;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int responseInterval;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int feedbackScore;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int cost;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String caseFilePath;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/cases/addMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/cases/getMtCaseList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/cases/getMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/case/rotateMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备二维码图片接收url：47.100.198.255:8080/equip/getQRCode?qrCode=100000026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;img src='47.100.198.255:8080/equip/getQRCode?qrCode=100000026'  style="width:300px"/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修工单Json对象（参照MtCaseDTO实体）</t>
+    <t>String hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deviceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门(科室)名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1597,7 +1621,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,6 +1690,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1848,7 +1880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1901,6 +1933,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2517,7 +2552,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3891,10 +3926,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3926,7 +3961,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>217</v>
@@ -3946,13 +3981,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>229</v>
@@ -3966,7 +4001,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>232</v>
@@ -3986,7 +4021,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>233</v>
@@ -4066,13 +4101,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="17" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -4087,7 +4122,7 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -4097,52 +4132,76 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" t="s">
-        <v>240</v>
+      <c r="C23" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" t="s">
-        <v>226</v>
+      <c r="C24" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" t="s">
-        <v>241</v>
+      <c r="C25" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4168,20 +4227,20 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
         <v>249</v>
-      </c>
-      <c r="C4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="277">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,22 +41,6 @@
   </si>
   <si>
     <t>返回值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功
-{
-    "code": 0,
-    "message": null,
-    "data": {
-        "userId": 10002,
-        "loginName": "tangwei",
-        "loginPassword": "698d51a19d8a121ce581499d7b701668",
-        "mobile": "189153",
-        "email": null,
-        "displayName": "Tang Wei"
-    }
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1348,11 +1332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int assigneeUserId
-用户（委派人）ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报修工单生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1512,108 +1491,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>String caseSubject;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer caseState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer deviceId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer reporterUserId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int responseInterval;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int feedbackScore;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int cost;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String caseFilePath;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/addMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/getMtCaseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/rotateMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备二维码图片接收url：47.100.198.255:8080/equip/getQRCode?qrCode=100000026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src='47.100.198.255:8080/equip/getQRCode?qrCode=100000026'  style="width:300px"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修工单Json对象（参照MtCaseDTO实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String caseRemark;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deviceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String deptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门(科室)名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单的状态：</t>
+  </si>
+  <si>
+    <t>报修中（10）：（主要是医护人员干的，当然也有可能是驻场工程师），</t>
+  </si>
+  <si>
+    <t>已取消（20）：（驻场工程师使用app操作，认为这个报修是误报）</t>
+  </si>
+  <si>
+    <t>维修处理中（30）：（驻场工程师使用app操作，确认这是一个问题，需要处理）</t>
+  </si>
+  <si>
+    <t>已关闭（50）：（主管确认关闭，可以使用app，也可以是用web）</t>
+  </si>
+  <si>
+    <t>已反馈（医务人员，微信小程序，这个字段是独立开来的字段，不是状态字段）</t>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/getCaseTimeShaft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得某工单时间轴信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": null,
+    "data": {
+        "userId": 10002,
+        "loginName": "tangwei",
+        "loginPassword": "698d51a19d8a121ce581499d7b701668",
+        "mobile": "189153",
+        "email": null,
+        "displayName": "Tang Wei"，
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"roleName":"调度"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String roleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/updMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改工单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成功
+{
+    "code": 0,
+    "message": “报修工单创建成功”,
+    "recordCount":1
+    "data": {
+        "caseId": 10002,
+        ……,
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MtCaseDTO实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": "工单状态更新成功",
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String roleName;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roleName 待处理角色名
+caseState 下一步工单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MtCaseDTO实体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int assigneeUserId
+用户（委派人）ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caseState 此刻工单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MtCaseDTO实体]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int caseId
-报修工单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String caseSubject;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer caseState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer deviceId;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer reporterUserId;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int responseInterval;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int feedbackScore;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int cost;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String caseFilePath;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/cases/addMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/cases/getMtCaseList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/cases/getMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/case/rotateMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备二维码图片接收url：47.100.198.255:8080/equip/getQRCode?qrCode=100000026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;img src='47.100.198.255:8080/equip/getQRCode?qrCode=100000026'  style="width:300px"/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修工单Json对象（参照MtCaseDTO实体）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String caseRemark;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String hospital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String deviceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String deptName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门(科室)名</t>
+报修工单编号
+[MtCaseDTO实体]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int assigneeUserId
+用户（委派人）ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caseState 此刻工单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[MtCaseDTO实体]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int caseId 报修工单编号
+[MtCaseDTO实体]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/cases/getMtCaseInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,7 +1847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,6 +1927,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1716,7 +1988,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1874,13 +2146,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1937,6 +2220,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2232,10 +2533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2264,42 +2568,42 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2336,47 +2640,52 @@
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="C16" s="22" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2718,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -2420,102 +2729,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2544,251 +2853,251 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -2832,102 +3141,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2956,71 +3265,71 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3064,20 +3373,20 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3114,67 +3423,67 @@
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3188,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3207,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3218,102 +3527,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3342,76 +3651,76 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3425,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3444,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3455,102 +3764,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3579,51 +3888,51 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3667,122 +3976,122 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="259.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="185.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="E5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="94.5">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,7 +4120,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3820,98 +4129,98 @@
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3926,14 +4235,15 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
@@ -3958,98 +4268,120 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="148.5">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="185.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="86.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
@@ -4068,141 +4400,164 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" s="19" t="s">
+        <v>256</v>
+      </c>
       <c r="C11" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="38.25">
+      <c r="A12" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="C12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="52.5" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>258</v>
+      </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="54" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>259</v>
+      </c>
       <c r="C14" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="52.5" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>260</v>
+      </c>
       <c r="C15" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="59.25" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>261</v>
+      </c>
       <c r="C16" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>223</v>
+      <c r="C18" s="23" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>255</v>
+      <c r="C23" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="18" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>239</v>
+      <c r="C26" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4227,20 +4582,20 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -61,11 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> String loginName: 登录名
- String password: 密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功
 {
     "code": 0,
@@ -312,9 +307,6 @@
     <t>String loginName;</t>
   </si>
   <si>
-    <t>String loginPassword;</t>
-  </si>
-  <si>
     <t>String mobile;</t>
   </si>
   <si>
@@ -328,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int userID 用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,10 +328,6 @@
   </si>
   <si>
     <t>删除部门</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> int DeptId  部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成功
@@ -680,10 +664,6 @@
   </si>
   <si>
     <t>获取单个部门信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int deptId 部门ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1523,14 +1503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47.100.198.255:8080/cases/addMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/cases/getMtCaseList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>47.100.198.255:8080/case/rotateMtCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1603,10 +1575,6 @@
   </si>
   <si>
     <t>已反馈（医务人员，微信小程序，这个字段是独立开来的字段，不是状态字段）</t>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/cases/getCaseTimeShaft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>取得某工单时间轴信息列表</t>
@@ -1658,10 +1626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47.100.198.255:8080/cases/updMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更改工单状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1718,33 +1682,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>roleName 待处理角色名
-caseState 下一步工单状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-MtCaseDTO实体</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">int assigneeUserId
 用户（委派人）ID
 </t>
@@ -1839,7 +1776,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47.100.198.255:8080/cases/getMtCaseInfo</t>
+    <t>47.100.198.255:8080/case/addMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/getCaseTimeShaft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/updMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/getMtCaseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/getMtCaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> int DeptId  部门ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门Json对象（参照department实体）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int userID 用户ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门Json对象（参照department实体）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int deptId 部门ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门Json对象（参照department实体）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reporterUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 用户处理人ID
+caseState 下一步工单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MtCaseDTO实体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String loginPassword;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> String loginName: 登录名
+ String loginPassword: 密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1847,7 +1901,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1968,6 +2022,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2163,7 +2225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2235,9 +2297,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2538,8 +2597,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2568,19 +2627,19 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -2588,22 +2647,22 @@
     </row>
     <row r="3" spans="1:6" ht="82.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2640,52 +2699,52 @@
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="22" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2718,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -2729,102 +2788,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2853,251 +2912,251 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3112,7 +3171,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3130,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3141,102 +3200,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3265,71 +3324,71 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3373,20 +3432,20 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3423,67 +3482,67 @@
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3516,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3527,102 +3586,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3651,76 +3710,76 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3753,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3764,102 +3823,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3888,51 +3947,51 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3976,122 +4035,122 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="259.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="185.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="94.5">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
       <c r="A7" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4120,7 +4179,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4129,98 +4188,98 @@
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4297,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4246,7 +4305,7 @@
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
     <col min="5" max="5" width="46.625" customWidth="1"/>
     <col min="6" max="6" width="32.875" customWidth="1"/>
   </cols>
@@ -4268,119 +4327,119 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="148.5">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="185.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="86.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>271</v>
+        <v>258</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -4400,164 +4459,164 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="25.5">
+    <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25">
       <c r="A12" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="54" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="59.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="23" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="18" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4582,24 +4641,25 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="281">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1295,16 +1295,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47.100.198.255:8080/accessory/queryPic?fileName=memory.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileName=yyy.jpg
-&lt;img src='http://47.100.198.255:8080/accessory/queryPic?fileName=memory.jpg'/&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1332,13 +1323,7 @@
     <t>int hisId;</t>
   </si>
   <si>
-    <t>String hisRemark;</t>
-  </si>
-  <si>
     <t>String reporterWeixin;</t>
-  </si>
-  <si>
-    <t>Integer assigneeUserId;</t>
   </si>
   <si>
     <t>int solveInterval;</t>
@@ -1677,7 +1662,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String roleName;</t>
+    <t>int caseId
+报修工单编号
+[MtCaseDTO实体]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int caseId 报修工单编号
+[MtCaseDTO实体]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/addMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/getCaseTimeShaft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/updMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/getMtCaseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/getMtCaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> int DeptId  部门ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门Json对象（参照department实体）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int userID 用户ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门Json对象（参照department实体）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int deptId 部门ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门Json对象（参照department实体）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String loginPassword;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> String loginName: 登录名
+ String loginPassword: 密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reporterUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 用户处理人ID
+feedbackScore等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MtCaseDTO实体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reporterUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 用户处理人ID
+caseState 下一步工单状态
+responseInterval等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MtCaseDTO实体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": "工单状态已关闭",
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/case/closeMtCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName=yyy.jpg
+&lt;img src='http://47.100.198.255:8080/accessory/queryPic?file=memory.jpg'/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/accessory/queryPic?file=memory.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer assigneeUserId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String hisRemark;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String assigneeUserName; 被指派操作人名 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1689,17 +1879,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>caseState 此刻工单状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
@@ -1731,12 +1910,6 @@
       </rPr>
       <t>MtCaseDTO实体]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int caseId
-报修工单编号
-[MtCaseDTO实体]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1748,17 +1921,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>caseState 此刻工单状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
@@ -1768,132 +1930,6 @@
       <t xml:space="preserve">
 [MtCaseDTO实体]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int caseId 报修工单编号
-[MtCaseDTO实体]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/case/addMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/case/getCaseTimeShaft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/case/updMtCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/case/getMtCaseList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/case/getMtCaseInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> int DeptId  部门ID
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>部门Json对象（参照department实体）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">int userID 用户ID
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>部门Json对象（参照department实体）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">int deptId 部门ID
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>部门Json对象（参照department实体）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reporterUserId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 用户处理人ID
-caseState 下一步工单状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-MtCaseDTO实体</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String loginPassword;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> String loginName: 登录名
- String loginPassword: 密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2636,10 +2672,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -2714,7 +2750,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2734,7 +2770,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -2920,7 +2956,7 @@
         <v>119</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3209,7 +3245,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>95</v>
@@ -3229,7 +3265,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>126</v>
@@ -3289,7 +3325,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>66</v>
@@ -4005,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4078,19 +4114,19 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="185.25" customHeight="1">
@@ -4296,8 +4332,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4330,19 +4366,19 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
@@ -4350,16 +4386,16 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>59</v>
@@ -4370,16 +4406,16 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>59</v>
@@ -4390,16 +4426,16 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>59</v>
@@ -4410,16 +4446,16 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>59</v>
@@ -4430,25 +4466,35 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+    <row r="8" spans="1:6" ht="86.25" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
@@ -4461,15 +4507,15 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25">
       <c r="A12" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>119</v>
@@ -4480,127 +4526,127 @@
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="54" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="59.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="23" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -4641,20 +4687,20 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="285">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     "message": "用户或密码不正确!",
     "data": null
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.100.198.255:8080/auth/logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1930,6 +1926,36 @@
       <t xml:space="preserve">
 [MtCaseDTO实体]</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/auth/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.100.198.255:8080/auth/getEngineerList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取工程师列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+{
+    "code": 0,
+    "message": null,
+    "data": [{
+        "userId": 10003,
+        "displayName": "Tang Wei"，
+        "roleName":"驻场工程师"
+        },…,
+     ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2633,13 +2659,13 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="5" max="5" width="46.625" customWidth="1"/>
@@ -2663,19 +2689,19 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -2683,31 +2709,41 @@
     </row>
     <row r="3" spans="1:6" ht="82.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" ht="124.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5"/>
@@ -2735,52 +2771,52 @@
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -2824,102 +2860,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2948,251 +2984,251 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3225,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3236,102 +3272,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3360,71 +3396,71 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3468,20 +3504,20 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3518,67 +3554,67 @@
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3611,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3622,102 +3658,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3746,76 +3782,76 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3848,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -3859,102 +3895,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3983,51 +4019,51 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -4071,122 +4107,122 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="259.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="185.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="94.5">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4215,7 +4251,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4224,98 +4260,98 @@
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4332,8 +4368,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4363,137 +4399,137 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="148.5">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="185.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="86.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="86.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4507,162 +4543,162 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25">
       <c r="A12" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="54" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="59.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>239</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>241</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4687,20 +4723,20 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
         <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/doc/方法接口参数.xlsx
+++ b/doc/方法接口参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
@@ -1607,10 +1607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更改工单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">成功
 {
@@ -1790,45 +1786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reporterUserId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 用户处理人ID
-caseState 下一步工单状态
-responseInterval等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-MtCaseDTO实体</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭工单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1855,57 +1812,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Integer assigneeUserId;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String hisRemark;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">String assigneeUserName; 被指派操作人名 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">int assigneeUserId
-用户（委派人）ID
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MtCaseDTO实体]</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1956,6 +1867,96 @@
         },…,
      ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int assigneeUserId
+用户（委派人）ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MtCaseDTO实体]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reporterUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 用户工程师ID
+(assigneeUserId 指派工程师ID)
+caseState 下一步工单状态
+responseInterval等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MtCaseDTO实体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改工单状态（指派、维修完成、确认）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer assigneeUserId;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2659,8 +2660,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2698,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>251</v>
@@ -2712,7 +2713,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>12</v>
@@ -2730,16 +2731,16 @@
     <row r="4" spans="1:6" ht="124.5" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
@@ -2786,7 +2787,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3281,7 +3282,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>94</v>
@@ -3301,7 +3302,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>125</v>
@@ -3361,7 +3362,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>65</v>
@@ -4150,13 +4151,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>207</v>
@@ -4368,15 +4369,15 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
     <col min="5" max="5" width="46.625" customWidth="1"/>
     <col min="6" max="6" width="32.875" customWidth="1"/>
@@ -4408,7 +4409,7 @@
         <v>208</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>219</v>
@@ -4422,7 +4423,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>209</v>
@@ -4431,7 +4432,7 @@
         <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>58</v>
@@ -4442,13 +4443,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>220</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>218</v>
@@ -4462,13 +4463,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>221</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>217</v>
@@ -4482,13 +4483,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>250</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>218</v>
@@ -4502,16 +4503,16 @@
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -4520,16 +4521,16 @@
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4603,12 +4604,12 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -4623,7 +4624,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="3:4">
